--- a/medicine/Sexualité et sexologie/Le_Parfum_de_l'invisible/Le_Parfum_de_l'invisible.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Parfum_de_l'invisible/Le_Parfum_de_l'invisible.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Parfum_de_l%27invisible</t>
+          <t>Le_Parfum_de_l'invisible</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parfum de l'invisible (parfois intitulé Manara, le parfum de l'invisible) est un film d'animation érotique américano-français réalisé par Francis Nielsen, sorti en 1997. Le scénario est adapté de la bande dessinée éponyme de Milo Manara publiée en 1987.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Parfum_de_l%27invisible</t>
+          <t>Le_Parfum_de_l'invisible</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une équipe de télévision vient interviewer une jeune femme, prénommée Miel, qui vient d'obtenir un grand succès en publiant son premier livre. Il y est question d'un homme invisible...
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Parfum_de_l%27invisible</t>
+          <t>Le_Parfum_de_l'invisible</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Le Parfum de l'invisible
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Parfum_de_l%27invisible</t>
+          <t>Le_Parfum_de_l'invisible</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Distribution des voix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Olivia Dutron
 Jean-Luc de Battice
